--- a/Resultados/Mercado mundial - Papayas.xlsx
+++ b/Resultados/Mercado mundial - Papayas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Dominican Republic" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mexico" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="República Dominicana" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Dominican Republic'!$B$12:$B$73</f>
+              <f>'República Dominicana'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Dominican Republic'!$C$12:$C$73</f>
+              <f>'República Dominicana'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Indonesia'!$B$12:$B$73</f>
+              <f>'Indonesia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Indonesia'!$C$12:$C$73</f>
+              <f>'Indonesia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brazil'!$B$12:$B$73</f>
+              <f>'Brasil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brazil'!$C$12:$C$73</f>
+              <f>'Brasil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>463128</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>30.7314</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>14232583.07</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>30.7314</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>390971.05</v>
@@ -2160,10 +2160,10 @@
         <v>464694</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>29.9963</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>13939099.55</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>29.9963</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>388992.93</v>
@@ -2182,10 +2182,10 @@
         <v>460122</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>30.5521</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>14057694.41</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>30.5521</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>385808.15</v>
@@ -2204,10 +2204,10 @@
         <v>483268</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>29.378</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>14197453.35</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>29.378</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>362132.57</v>
@@ -2226,10 +2226,10 @@
         <v>468787</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>30.2591</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>14185055.56</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>30.2591</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>361770.51</v>
@@ -2248,10 +2248,10 @@
         <v>462726</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>29.8026</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>13790410.32</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>29.8026</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>351643.78</v>
@@ -2270,10 +2270,10 @@
         <v>449740</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>29.8863</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>13441057.03</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>29.8863</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>365307.45</v>
@@ -2292,10 +2292,10 @@
         <v>456314</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>29.4912</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>13457240.48</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>29.4912</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>355200.67</v>
@@ -2314,10 +2314,10 @@
         <v>419716</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>30.1167</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>12640464.35</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>30.1167</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>335047.7</v>
@@ -2336,10 +2336,10 @@
         <v>435056</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>30.2662</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>13167495.01</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>30.2662</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>294823.97</v>
@@ -2358,10 +2358,10 @@
         <v>428860</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>29.7356</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>12752398.49</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>29.7356</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>272562</v>
@@ -2380,10 +2380,10 @@
         <v>425004</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>29.1853</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>12403890.64</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>29.1853</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>268323</v>
@@ -2402,10 +2402,10 @@
         <v>412481</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>28.2194</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>11639941.44</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>28.2194</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>260256</v>
@@ -2424,10 +2424,10 @@
         <v>405036</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>27.421</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>11106516.57</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>27.421</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>266409</v>
@@ -2446,10 +2446,10 @@
         <v>392474</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>27.7523</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>10892057.2</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>27.7523</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>268458</v>
@@ -2468,10 +2468,10 @@
         <v>391786</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>10354923.77</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>26.43</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>244982</v>
@@ -2490,10 +2490,10 @@
         <v>371858</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>26.4877</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9849659.57</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>26.4877</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>254171</v>
@@ -2512,10 +2512,10 @@
         <v>357621</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>26.106</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9336063.939999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>26.106</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>263444</v>
@@ -2534,10 +2534,10 @@
         <v>371098</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>22.7993</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>8460779.66</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>22.7993</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>254176</v>
@@ -2556,10 +2556,10 @@
         <v>361599</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>24.6483</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>8912795.880000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>24.6483</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>265340</v>
@@ -2578,10 +2578,10 @@
         <v>358920</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>23.3709</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8388273.78</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>23.3709</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>234300</v>
@@ -2600,10 +2600,10 @@
         <v>360834</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>23.8806</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8616931.85</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>23.8806</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>197883</v>
@@ -2622,10 +2622,10 @@
         <v>361609</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>24.1596</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>8736322.25</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>24.1596</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>185585.75</v>
@@ -2644,10 +2644,10 @@
         <v>353961</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>20.7235</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7335302.17</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>20.7235</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>160401.48</v>
@@ -2666,10 +2666,10 @@
         <v>346189</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>20.2167</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6998797.95</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>20.2167</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>148388.8</v>
@@ -2688,10 +2688,10 @@
         <v>350086</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>19.3089</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6759766.07</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>19.3089</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>114340</v>
@@ -2710,10 +2710,10 @@
         <v>338179</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>19.2035</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>6494234.06</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>19.2035</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>109292</v>
@@ -2732,10 +2732,10 @@
         <v>315161</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>17.445</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5497971.42</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>17.445</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>115192.32</v>
@@ -2754,10 +2754,10 @@
         <v>304041</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>18.905</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5747907.79</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>18.905</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>92671.5</v>
@@ -2776,10 +2776,10 @@
         <v>305172</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>18.1286</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5532325.87</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>18.1286</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>78656</v>
@@ -2798,10 +2798,10 @@
         <v>280128</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>18.0959</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5069161.48</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>18.0959</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>71584</v>
@@ -2820,10 +2820,10 @@
         <v>255889</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>17.0306</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4357926.45</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>17.0306</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>57044</v>
@@ -2842,10 +2842,10 @@
         <v>254947</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>15.8278</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>4035264.24</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>15.8278</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>59293</v>
@@ -2864,10 +2864,10 @@
         <v>235883</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>13.954</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3291518.1</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>13.954</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>50994</v>
@@ -2886,10 +2886,10 @@
         <v>227419</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>13.8306</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3145338.8</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>13.8306</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>45800</v>
@@ -2908,10 +2908,10 @@
         <v>242597</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>15.097</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3662477.7</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>15.097</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>45078</v>
@@ -2930,10 +2930,10 @@
         <v>232435</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>14.2306</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3307700.3</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>14.2306</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>31477</v>
@@ -2952,10 +2952,10 @@
         <v>242454</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15.0176</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3641078.3</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15.0176</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>22584</v>
@@ -2974,10 +2974,10 @@
         <v>220908</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>14.2967</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3158263</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>14.2967</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>22143</v>
@@ -2996,10 +2996,10 @@
         <v>219727</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>14.5567</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3198490.9</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>14.5567</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>27463</v>
@@ -3018,10 +3018,10 @@
         <v>199840</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>12.9621</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2590352.72</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>12.9621</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>17023</v>
@@ -3040,10 +3040,10 @@
         <v>205447</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>12.2689</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2520610.83</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>12.2689</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>12613</v>
@@ -3062,10 +3062,10 @@
         <v>198643</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>12.1439</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2412293.83</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>12.1439</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>12274</v>
@@ -3084,10 +3084,10 @@
         <v>194684</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12.6409</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2460987.4</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12.6409</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>11773</v>
@@ -3106,10 +3106,10 @@
         <v>178519</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>13.0156</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2323524.9</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>13.0156</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>11437</v>
@@ -3128,10 +3128,10 @@
         <v>172950</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>12.9926</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2247074.14</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>12.9926</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2498</v>
@@ -3150,10 +3150,10 @@
         <v>170044</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>13.4518</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2287399.13</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>13.4518</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>2586</v>
@@ -3172,10 +3172,10 @@
         <v>154377</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>12.362</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1908409</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>12.362</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2875</v>
@@ -3194,10 +3194,10 @@
         <v>167711</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11.5424</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1935780.73</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11.5424</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>2729</v>
@@ -3216,10 +3216,10 @@
         <v>160234</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>10.9104</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1748222.9</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>10.9104</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>2542</v>
@@ -3238,10 +3238,10 @@
         <v>154972</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.6755</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1809377.7</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.6755</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1661</v>
@@ -3260,10 +3260,10 @@
         <v>151239</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11.591</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1753014</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11.591</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1399</v>
@@ -3282,10 +3282,10 @@
         <v>148631</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>11.8459</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1760669</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>11.8459</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>2483</v>
@@ -3304,10 +3304,10 @@
         <v>144609</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.7101</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1693379</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.7101</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1676</v>
@@ -3326,10 +3326,10 @@
         <v>145045</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.8023</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1711868</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.8023</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>704</v>
@@ -3348,10 +3348,10 @@
         <v>143147</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.9253</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1707073</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.9253</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>818</v>
@@ -3370,10 +3370,10 @@
         <v>135342</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.1933</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1650269</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.1933</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>779</v>
@@ -3391,10 +3391,10 @@
         <v>134784</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12.1295</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1634868</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12.1295</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>982</v>
@@ -3412,10 +3412,10 @@
         <v>129350</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>11.9658</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1547781</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>11.9658</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1278</v>
@@ -3433,10 +3433,10 @@
         <v>119989</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>11.357</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1362721</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>11.357</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>282</v>
@@ -3454,10 +3454,10 @@
         <v>121196</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>11.7535</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1424481</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>11.7535</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>5</v>
@@ -3475,10 +3475,10 @@
         <v>117275</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.5153</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1350458</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.5153</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>14</v>
@@ -3496,10 +3496,10 @@
         <v>114192</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11.5847</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1322877</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11.5847</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>76</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>República Dominicana</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>República Democrática del Congo</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Filipinas</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Singapur</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>148000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>35.4054</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5240000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>35.4054</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5031,10 @@
         <v>150000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>35.6067</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5341000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>35.6067</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5051,10 @@
         <v>146000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>37.9452</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5540000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>37.9452</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5071,10 +5071,10 @@
         <v>142000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>40.7042</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5780000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>40.7042</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5091,10 +5091,10 @@
         <v>149000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>40.604</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6050000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>40.604</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5111,10 +5111,10 @@
         <v>138000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>43.3986</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>5989000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>43.3986</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -5131,10 +5131,10 @@
         <v>134000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>44.3284</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5940000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>44.3284</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -5151,10 +5151,10 @@
         <v>132000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>42.9318</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>5667000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>42.9318</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -5171,10 +5171,10 @@
         <v>115000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>42.7217</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4913000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>42.7217</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5191,10 +5191,10 @@
         <v>133360</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>42.2863</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>5639300</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>42.2863</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -5211,10 +5211,10 @@
         <v>135000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>41.0667</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5544000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>41.0667</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>132000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>40.7727</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5382000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>40.7727</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5255,10 +5255,10 @@
         <v>117400</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>37.9651</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4457100</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>37.9651</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5277,10 +5277,10 @@
         <v>106000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>39.5849</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4196000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>39.5849</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5299,10 +5299,10 @@
         <v>95700</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>40.8934</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3913500</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>40.8934</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5321,10 +5321,10 @@
         <v>98000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>37.0306</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3629000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>37.0306</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5343,10 +5343,10 @@
         <v>83000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>35.04819999999999</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2909000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>35.04819999999999</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5365,10 +5365,10 @@
         <v>72500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>34.2359</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2482100</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>34.2359</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3</v>
@@ -5387,10 +5387,10 @@
         <v>67800</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>31.5531</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2139300</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>31.5531</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -5407,10 +5407,10 @@
         <v>73800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>34.3509</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2535100</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>34.3509</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -5427,10 +5427,10 @@
         <v>58200</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>29.0739</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1692100</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>29.0739</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -5447,10 +5447,10 @@
         <v>68000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>31.5765</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2147200</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>31.5765</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -5467,10 +5467,10 @@
         <v>73700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>35.1479</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2590400</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>35.1479</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -5487,10 +5487,10 @@
         <v>70422</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>25.517</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1796960</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>25.517</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -5507,10 +5507,10 @@
         <v>60825</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>27.3978</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1666470</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>27.3978</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -5527,10 +5527,10 @@
         <v>67767</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>23.3487</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1582270</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>23.3487</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -5547,10 +5547,10 @@
         <v>69419</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>23.3148</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1618490</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>23.3148</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -5567,10 +5567,10 @@
         <v>63780</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>20.3721</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1299330</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>20.3721</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -5587,10 +5587,10 @@
         <v>61420</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>21.6488</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1329670</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>21.6488</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -5607,10 +5607,10 @@
         <v>61450</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>22.3509</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1373460</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>22.3509</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -5627,10 +5627,10 @@
         <v>55945</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>22.6422</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1266720</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>22.6422</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -5647,10 +5647,10 @@
         <v>47412</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>16.9497</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>803617</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>16.9497</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -5667,10 +5667,10 @@
         <v>45200</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17.8164</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>805300</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17.8164</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -5687,10 +5687,10 @@
         <v>36518</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>12.3637</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>451497</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>12.3637</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -5707,10 +5707,10 @@
         <v>35554</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>9.965200000000001</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>354304</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>9.965200000000001</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -5727,10 +5727,10 @@
         <v>35474</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>10.8949</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>386486</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>10.8949</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -5747,10 +5747,10 @@
         <v>32993</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>8.3759</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>276346</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>8.3759</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -5767,10 +5767,10 @@
         <v>32959</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8.458</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>278767</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8.458</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -5787,10 +5787,10 @@
         <v>31000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>7.741899999999999</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>240000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>7.741899999999999</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -5807,10 +5807,10 @@
         <v>32000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7.9375</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>254000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>7.9375</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -5827,10 +5827,10 @@
         <v>26960</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>12.0751</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>325544</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>12.0751</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -5847,10 +5847,10 @@
         <v>27060</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>13.2467</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>358457</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>13.2467</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -5867,10 +5867,10 @@
         <v>26870</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9.234399999999999</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>248129</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9.234399999999999</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -5887,10 +5887,10 @@
         <v>25684</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>16.0982</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>413467</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>16.0982</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -5907,10 +5907,10 @@
         <v>25685</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>16.3131</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>419002</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>16.3131</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -5927,10 +5927,10 @@
         <v>25628</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>408510</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>15.94</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -5947,10 +5947,10 @@
         <v>23258</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>19.3671</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>450441</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>19.3671</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -5967,10 +5967,10 @@
         <v>12180</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>19.0945</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>232571</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>19.0945</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -5987,10 +5987,10 @@
         <v>10864</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>20.7014</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>224900</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>20.7014</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -6007,10 +6007,10 @@
         <v>10326</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>21.9069</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>226211</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>21.9069</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -6027,10 +6027,10 @@
         <v>9822</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>22.2274</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>218318</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>22.2274</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -6047,10 +6047,10 @@
         <v>9953</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>18.9759</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>188867</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>18.9759</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -6067,10 +6067,10 @@
         <v>11012</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>22.4125</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>246806</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>22.4125</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -6087,10 +6087,10 @@
         <v>10384</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>19.7111</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>204680</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>19.7111</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -6107,10 +6107,10 @@
         <v>9000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>24.6667</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>222000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>24.6667</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -6127,10 +6127,10 @@
         <v>9000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>22.7778</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>205000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>22.7778</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -6147,10 +6147,10 @@
         <v>8000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>26.125</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>209000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>26.125</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -6166,10 +6166,10 @@
         <v>8000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>206000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>25.75</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -6185,10 +6185,10 @@
         <v>6000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>29.8333</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>179000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>29.8333</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -6204,10 +6204,10 @@
         <v>6000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>25.1667</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>151000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>25.1667</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -6223,10 +6223,10 @@
         <v>7000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>33.7143</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>236000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>33.7143</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -6242,10 +6242,10 @@
         <v>7000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>33.1429</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>232000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>33.1429</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -6261,10 +6261,10 @@
         <v>6000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>38</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>228000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>38</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -6598,7 +6598,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6677,10 +6677,10 @@
         <v>11569</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>137.1556</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1586784.27</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>137.1556</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>18.22</v>
@@ -6699,10 +6699,10 @@
         <v>10022</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>127.8865</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1281726.35</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>127.8865</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="inlineStr"/>
@@ -6717,10 +6717,10 @@
         <v>9612</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>120.3301</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1156667.01</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>120.3301</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -6737,10 +6737,10 @@
         <v>9173</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>119.3151</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1094494.77</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>119.3151</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0</v>
@@ -6759,10 +6759,10 @@
         <v>11582</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>101.5753</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1176452.87</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>101.5753</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -6779,10 +6779,10 @@
         <v>10308</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>99.59569999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1026618.89</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>99.59569999999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>5.52</v>
@@ -6801,10 +6801,10 @@
         <v>8972</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>96.89100000000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>869306</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>96.89100000000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>5.49</v>
@@ -6823,10 +6823,10 @@
         <v>8996</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>95.95389999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>863201.49</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>95.95389999999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2.52</v>
@@ -6845,10 +6845,10 @@
         <v>2700</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>280.8105</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>758106</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>280.8105</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1.15</v>
@@ -6867,10 +6867,10 @@
         <v>2676</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>263.3731</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>704786.36</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>263.3731</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>8.26</v>
@@ -6889,10 +6889,10 @@
         <v>2470</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>215.1883</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>531601.2</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>215.1883</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -6909,10 +6909,10 @@
         <v>2482</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>209.8087</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>520829.2</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>209.8087</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -6929,10 +6929,10 @@
         <v>2432</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>204.6936</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>497916.2</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>204.6936</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -6949,10 +6949,10 @@
         <v>2280</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>218.4242</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>498071.31</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>218.4242</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -6969,10 +6969,10 @@
         <v>1900</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>279.9434</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>531892.41</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>279.9434</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -6989,10 +6989,10 @@
         <v>1738</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>178.8233</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>310856.39</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>178.8233</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -7009,10 +7009,10 @@
         <v>2160</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>246.1427</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>531601.2</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>246.1427</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -7029,10 +7029,10 @@
         <v>2336</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>223.0041</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>520829.18</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>223.0041</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -7049,10 +7049,10 @@
         <v>1695</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>240.8396</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>408144.79</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>240.8396</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -7069,10 +7069,10 @@
         <v>1845</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>158.1348</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>291783.54</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>158.1348</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -7089,10 +7089,10 @@
         <v>1800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>210.7711</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>379467.48</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>210.7711</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -7109,10 +7109,10 @@
         <v>2419</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>169.4187</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>409886.6</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>169.4187</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -7129,10 +7129,10 @@
         <v>1298</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>294.2959</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>381998.55</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>294.2959</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -7149,10 +7149,10 @@
         <v>1329</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>159.5135</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>212049.35</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>159.5135</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -7169,10 +7169,10 @@
         <v>1314</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>76.4688</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>100483.53</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>76.4688</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -7189,10 +7189,10 @@
         <v>1018</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>92.9547</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>94599.47</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>92.9547</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -7209,10 +7209,10 @@
         <v>1113</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>117.4946</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>130763.86</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>117.4946</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -7229,10 +7229,10 @@
         <v>1801</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>37.675</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>67849.03999999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>37.675</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7249,10 +7249,10 @@
         <v>1488</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>36.95330000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>55000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>36.95330000000001</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -7269,10 +7269,10 @@
         <v>1209</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>45.4861</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>55000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>45.4861</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -7289,10 +7289,10 @@
         <v>1284</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>42.8396</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>55000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>42.8396</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -7309,10 +7309,10 @@
         <v>1136</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>48.4192</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>55000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>48.4192</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -7329,10 +7329,10 @@
         <v>976</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>56.3454</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>55000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>56.3454</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -7349,10 +7349,10 @@
         <v>2200</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>55000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>25</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -7369,10 +7369,10 @@
         <v>1300</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -7389,10 +7389,10 @@
         <v>1700</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>10.2253</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>17383</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>10.2253</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -7409,10 +7409,10 @@
         <v>1400</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>9.935700000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13910</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>9.935700000000001</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -7429,10 +7429,10 @@
         <v>890</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9.7079</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8640</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9.7079</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -7449,10 +7449,10 @@
         <v>880</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>9.632999999999999</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8477</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>9.632999999999999</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -7469,10 +7469,10 @@
         <v>850</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9.702399999999999</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>8247</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9.702399999999999</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -7489,10 +7489,10 @@
         <v>920</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>9.6739</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8900</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>9.6739</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -7509,10 +7509,10 @@
         <v>920</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>9.565200000000001</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8800</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>9.565200000000001</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -7529,10 +7529,10 @@
         <v>880</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9.6591</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8500</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9.6591</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -7549,10 +7549,10 @@
         <v>660</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>9.2424</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>6100</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>9.2424</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -7569,10 +7569,10 @@
         <v>960</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>9.270799999999999</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8900</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>9.270799999999999</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -7589,10 +7589,10 @@
         <v>960</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>9.166700000000001</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8800</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>9.166700000000001</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -7609,10 +7609,10 @@
         <v>910</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>9.3407</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8500</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>9.3407</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -7629,10 +7629,10 @@
         <v>910</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>9.230799999999999</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8400</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>9.230799999999999</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -7649,10 +7649,10 @@
         <v>910</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>9.010999999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8200</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>9.010999999999999</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -7669,10 +7669,10 @@
         <v>900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.8889</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.8889</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -7689,10 +7689,10 @@
         <v>880</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8.8909</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7824</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8.8909</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -7709,10 +7709,10 @@
         <v>850</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>8.9718</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7626</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>8.9718</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -7729,10 +7729,10 @@
         <v>820</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>8.872</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>7275</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>8.872</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -7749,10 +7749,10 @@
         <v>770</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.685700000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>6688</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.685700000000001</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -7769,10 +7769,10 @@
         <v>760</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.4816</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6446</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.4816</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -7789,10 +7789,10 @@
         <v>750</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.342700000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6257</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8.342700000000001</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -7809,10 +7809,10 @@
         <v>730</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.3178</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>6072</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.3178</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -7828,10 +7828,10 @@
         <v>700</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.424299999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5897</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.424299999999999</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -7847,10 +7847,10 @@
         <v>700</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8.1714</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5720</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8.1714</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -7866,10 +7866,10 @@
         <v>650</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>8.552299999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5559</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>8.552299999999999</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -7885,10 +7885,10 @@
         <v>650</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5395</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.300000000000001</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -7904,10 +7904,10 @@
         <v>650</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8.0723</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5247</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8.0723</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -7923,10 +7923,10 @@
         <v>640</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8.0031</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5122</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8.0031</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -8260,7 +8260,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8339,10 +8339,10 @@
         <v>12541</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>98.7718</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1238692.13</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>98.7718</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0</v>
@@ -8361,10 +8361,10 @@
         <v>11191</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>97.36150000000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1089578.12</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>97.36150000000001</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.01</v>
@@ -8383,10 +8383,10 @@
         <v>12176</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>95.9513</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1168265.89</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>95.9513</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -8403,10 +8403,10 @@
         <v>10628</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>95.62939999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1016388</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>95.62939999999999</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8423,10 +8423,10 @@
         <v>10530</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>93.73010000000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>986991</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>93.73010000000001</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -8443,10 +8443,10 @@
         <v>9659</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>91.8912</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>887580</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>91.8912</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -8463,10 +8463,10 @@
         <v>9736</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>89.8832</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>875112</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>89.8832</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -8483,10 +8483,10 @@
         <v>10289</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>87.89089999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>904284</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>87.89089999999999</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -8503,10 +8503,10 @@
         <v>9655</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>88.19410000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>851480</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>88.19410000000001</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -8523,10 +8523,10 @@
         <v>9690</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>86.69750000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>840121</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>86.69750000000001</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -8543,10 +8543,10 @@
         <v>10822</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>84.071</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>909827</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>84.071</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -8565,10 +8565,10 @@
         <v>11701</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>77.4559</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>906312</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>77.4559</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>83</v>
@@ -8587,10 +8587,10 @@
         <v>11055</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>86.6803</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>958251</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>86.6803</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>299</v>
@@ -8609,10 +8609,10 @@
         <v>9225</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>73.25760000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>675801</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>73.25760000000001</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>580</v>
@@ -8631,10 +8631,10 @@
         <v>9571</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>80.74850000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>772844</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>80.74850000000001</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>300</v>
@@ -8653,10 +8653,10 @@
         <v>9388</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>76.4699</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>717899</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>76.4699</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>163</v>
@@ -8675,10 +8675,10 @@
         <v>7984</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>77.8462</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>621524</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>77.8462</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>57</v>
@@ -8697,10 +8697,10 @@
         <v>8021</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>80.2208</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>643451</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>80.2208</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>73</v>
@@ -8719,10 +8719,10 @@
         <v>7879</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>69.63539999999999</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>548657</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>69.63539999999999</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>157</v>
@@ -8741,10 +8741,10 @@
         <v>9134</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>80.20699999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>732611</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>80.20699999999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1790</v>
@@ -8763,10 +8763,10 @@
         <v>9306</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>67.3485</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>626745</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>67.3485</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>299</v>
@@ -8785,10 +8785,10 @@
         <v>10280</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>58.871</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>605194</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>58.871</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -8807,10 +8807,10 @@
         <v>10259</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>48.7934</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>500571</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>48.7934</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1</v>
@@ -8829,10 +8829,10 @@
         <v>8886</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>48.3015</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>429207</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>48.3015</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -8851,10 +8851,10 @@
         <v>9946</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>45.2362</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>449919</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>45.2362</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>25</v>
@@ -8873,10 +8873,10 @@
         <v>9886</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>49.5598</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>489948</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>49.5598</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -8895,10 +8895,10 @@
         <v>10036</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>35.921</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>360503</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>35.921</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1</v>
@@ -8917,10 +8917,10 @@
         <v>9892</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>38.6134</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>381964</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>38.6134</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2</v>
@@ -8939,10 +8939,10 @@
         <v>11182</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>52.4129</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>586081</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>52.4129</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -8961,10 +8961,10 @@
         <v>12235</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>30.3564</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>371411</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>30.3564</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -8983,10 +8983,10 @@
         <v>10751</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>39.2893</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>422399</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>39.2893</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>13157</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>30.9029</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>406590</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>30.9029</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>40</v>
@@ -9027,10 +9027,10 @@
         <v>24597</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>14.3372</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>352651</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>14.3372</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9049,10 +9049,10 @@
         <v>27880</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>12.5381</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>349561</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>12.5381</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9071,10 +9071,10 @@
         <v>26307</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>12.2794</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>323035</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>12.2794</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9093,10 +9093,10 @@
         <v>35183</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>9.8331</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>345957</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>9.8331</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9115,10 +9115,10 @@
         <v>33000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>9.7273</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>321000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>9.7273</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9137,10 +9137,10 @@
         <v>36000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8.744899999999999</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>314816</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8.744899999999999</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9159,10 +9159,10 @@
         <v>28050</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>9.106</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>255423</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>9.106</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1</v>
@@ -9181,10 +9181,10 @@
         <v>28981</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9.2828</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>269024</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9.2828</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9203,10 +9203,10 @@
         <v>28321</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8.492000000000001</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>240502</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8.492000000000001</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9225,10 +9225,10 @@
         <v>36751</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8.0205</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>294763</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8.0205</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9247,10 +9247,10 @@
         <v>32574</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9.914399999999999</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>322952</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9.914399999999999</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1</v>
@@ -9269,10 +9269,10 @@
         <v>30438</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10.3564</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>315229</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10.3564</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9291,10 +9291,10 @@
         <v>22820</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>263572</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>11.55</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9313,10 +9313,10 @@
         <v>20745</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>10.605</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>220000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>10.605</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9335,10 +9335,10 @@
         <v>19977</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12.2376</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>244470</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12.2376</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9357,10 +9357,10 @@
         <v>19200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.6208</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>223120</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.6208</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9379,10 +9379,10 @@
         <v>33600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>7.6101</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>255700</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>7.6101</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>34700</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5.2219</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>181200</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5.2219</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9423,10 +9423,10 @@
         <v>32000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>280000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8.75</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9445,10 +9445,10 @@
         <v>30000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9467,10 +9467,10 @@
         <v>30000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9489,10 +9489,10 @@
         <v>28000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10.7143</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10.7143</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9511,10 +9511,10 @@
         <v>35000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>10.2857</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>360000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>10.2857</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9533,10 +9533,10 @@
         <v>35000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>350000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9555,10 +9555,10 @@
         <v>28000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>10.7143</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>10.7143</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>28000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10.7143</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10.7143</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9597,10 +9597,10 @@
         <v>26000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10.7692</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>280000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10.7692</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9618,10 +9618,10 @@
         <v>22000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10.9091</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>240000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10.9091</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9639,10 +9639,10 @@
         <v>22000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10.9091</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>240000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10.9091</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9660,10 +9660,10 @@
         <v>18000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.1111</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>200000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.1111</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9681,10 +9681,10 @@
         <v>18000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11.1111</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>200000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11.1111</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10020,7 +10020,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10099,10 +10099,10 @@
         <v>20334</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>56.4828</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1148545.61</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>56.4828</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -10119,10 +10119,10 @@
         <v>20336</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>58.8261</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1196300.74</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>58.8261</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -10139,10 +10139,10 @@
         <v>19509</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>58.1659</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1134753.09</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>58.1659</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -10159,10 +10159,10 @@
         <v>18983</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>58.8658</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1117437.2</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>58.8658</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -10179,10 +10179,10 @@
         <v>18839</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>57.493</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1083132.67</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>57.493</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -10199,10 +10199,10 @@
         <v>17923</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>58.0147</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1039819.62</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>58.0147</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -10219,10 +10219,10 @@
         <v>16664</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>57.7166</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>961768.25</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>57.7166</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10239,10 +10239,10 @@
         <v>16820</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>56.5954</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>951921.9</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>56.5954</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10259,10 +10259,10 @@
         <v>15869</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>55.6787</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>883592.54</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>55.6787</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -10279,10 +10279,10 @@
         <v>14533</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>57.5483</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>836370.48</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>57.5483</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10299,10 +10299,10 @@
         <v>14869</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>51.4166</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>764514</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>51.4166</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>9</v>
@@ -10321,10 +10321,10 @@
         <v>14227</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>50.1101</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>712917</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>50.1101</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>71</v>
@@ -10343,10 +10343,10 @@
         <v>14223</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>44.6016</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>634369</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>44.6016</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>152</v>
@@ -10365,10 +10365,10 @@
         <v>14180</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>43.4566</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>616215</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>43.4566</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>264</v>
@@ -10387,10 +10387,10 @@
         <v>15574</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>45.4185</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>707347</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>45.4185</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -10409,10 +10409,10 @@
         <v>16157</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>40.4118</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>652934</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>40.4118</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>20946</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>43.895</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>919425</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>43.895</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -10453,10 +10453,10 @@
         <v>19391</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>41.1835</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>798589</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>41.1835</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>17</v>
@@ -10475,10 +10475,10 @@
         <v>18921</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>37.4968</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>709477</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>37.4968</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10497,10 +10497,10 @@
         <v>20610</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>38.2175</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>787663</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>38.2175</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10519,10 +10519,10 @@
         <v>26327</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>36.3009</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>955694</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>36.3009</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10541,10 +10541,10 @@
         <v>20445</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>42.854</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>876150</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>42.854</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -10563,10 +10563,10 @@
         <v>22244</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>39.2671</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>873457</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>39.2671</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>17153</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>39.1987</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>672376</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>39.1987</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10607,10 +10607,10 @@
         <v>17581</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>32.3776</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>569230</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>32.3776</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -10629,10 +10629,10 @@
         <v>19694</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>29.225</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>575558</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>29.225</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -10651,10 +10651,10 @@
         <v>19703</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>30.1545</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>594134</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>30.1545</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>17322</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>28.6831</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>496849</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>28.6831</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -10695,10 +10695,10 @@
         <v>13987</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>34.5298</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>482968</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>34.5298</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -10717,10 +10717,10 @@
         <v>18460</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>26.4905</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>489014</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>26.4905</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -10739,10 +10739,10 @@
         <v>13410</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>20.3743</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>273219</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>20.3743</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>17278</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>27.4449</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>474193</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>27.4449</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1</v>
@@ -10783,10 +10783,10 @@
         <v>13919</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>24.5732</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>342035</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>24.5732</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -10805,10 +10805,10 @@
         <v>9832</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>25.3809</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>249545</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>25.3809</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1</v>
@@ -10827,10 +10827,10 @@
         <v>12280</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>23.1343</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>284089</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>23.1343</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>2</v>
@@ -10849,10 +10849,10 @@
         <v>18711</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>23.3219</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>436377</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>23.3219</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>8</v>
@@ -10871,10 +10871,10 @@
         <v>18780</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>29.2003</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>548382</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>29.2003</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -10893,10 +10893,10 @@
         <v>22585</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>31.597</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>713619</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>31.597</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -10915,10 +10915,10 @@
         <v>20617</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>31.9893</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>659524</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>31.9893</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -10937,10 +10937,10 @@
         <v>22434</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>34.0782</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>764511</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>34.0782</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -10959,10 +10959,10 @@
         <v>15496</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>27.4358</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>425145</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>27.4358</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -10981,10 +10981,10 @@
         <v>14655</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>22.7172</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>332921</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>22.7172</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11003,10 +11003,10 @@
         <v>11248</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>22.0169</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>247646</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>22.0169</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11025,10 +11025,10 @@
         <v>8521</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>22.8467</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>194677</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>22.8467</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11047,10 +11047,10 @@
         <v>9382</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>22.3094</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>209307</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>22.3094</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>11396</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>25.0035</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>284940</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>25.0035</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11091,10 +11091,10 @@
         <v>10898</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>25.8911</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>282161</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>25.8911</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11113,10 +11113,10 @@
         <v>9567</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>23.3851</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>223725</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>23.3851</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>10695</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>24.4551</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>261547</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>24.4551</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>10345</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>17.0142</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>176012</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>17.0142</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11179,10 +11179,10 @@
         <v>9222</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>19.9549</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>184024</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>19.9549</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11201,10 +11201,10 @@
         <v>8635</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>19.5607</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>168907</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>19.5607</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>6079</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>23.7768</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>144539</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>23.7768</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11245,10 +11245,10 @@
         <v>5624</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>22.2434</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>125097</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>22.2434</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11267,10 +11267,10 @@
         <v>5129</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>23.355</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>119788</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>23.355</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11289,10 +11289,10 @@
         <v>4925</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>26.0759</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>128424</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>26.0759</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>5330</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>22.0743</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>117656</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>22.0743</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11332,10 +11332,10 @@
         <v>5375</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>22.7371</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>122212</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>22.7371</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11353,10 +11353,10 @@
         <v>5058</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>23.5221</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>118975</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>23.5221</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11374,10 +11374,10 @@
         <v>3216</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>21.8725</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>70342</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>21.8725</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11395,10 +11395,10 @@
         <v>3058</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>22.122</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>67649</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>22.122</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11416,10 +11416,10 @@
         <v>2245</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>21.4526</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>48161</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>21.4526</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11437,10 +11437,10 @@
         <v>1674</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>21.3602</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>35757</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>21.3602</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11776,7 +11776,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11855,10 +11855,10 @@
         <v>26839</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>42.4138</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1138343</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>42.4138</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -11875,10 +11875,10 @@
         <v>27210</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>43.6789</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1188504</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>43.6789</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -11895,10 +11895,10 @@
         <v>28593</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>44.05569999999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1259684</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>44.05569999999999</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -11915,10 +11915,10 @@
         <v>28451</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>43.39530000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1234639</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>43.39530000000001</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11935,10 +11935,10 @@
         <v>28058</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>41.7359</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1171026</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>41.7359</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -11955,10 +11955,10 @@
         <v>27402</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>38.8811</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1065421</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>38.8811</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -11975,10 +11975,10 @@
         <v>26675</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>39.6809</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1058487</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>39.6809</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -11995,10 +11995,10 @@
         <v>35157</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1296940</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>36.89</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -12015,10 +12015,10 @@
         <v>30545</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>48.4921</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1481190</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>48.4921</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -12035,10 +12035,10 @@
         <v>32031</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>50.0562</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1603351</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>50.0562</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -12055,10 +12055,10 @@
         <v>31989</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>49.4744</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1582638</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>49.4744</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12077,10 +12077,10 @@
         <v>31310</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>48.4732</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1517696</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>48.4732</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -12099,10 +12099,10 @@
         <v>35531</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>52.1894</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1854343</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>52.1894</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -12121,10 +12121,10 @@
         <v>34417</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>54.3906</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1871961</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>54.3906</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2</v>
@@ -12143,10 +12143,10 @@
         <v>34213</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>52.3951</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1792594</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>52.3951</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -12163,10 +12163,10 @@
         <v>36585</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>51.6683</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1890286</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>51.6683</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -12183,10 +12183,10 @@
         <v>34779</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>52.087</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1811535</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>52.087</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -12203,10 +12203,10 @@
         <v>36650</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>51.7773</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1897639</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>51.7773</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -12223,10 +12223,10 @@
         <v>32559</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>48.3374</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1573819</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>48.3374</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -12243,10 +12243,10 @@
         <v>34445</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>46.8093</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1612348</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>46.8093</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -12263,10 +12263,10 @@
         <v>36244</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>47.307</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1714594</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>47.307</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -12283,10 +12283,10 @@
         <v>35626</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>44.8492</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1597796</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>44.8492</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -12303,10 +12303,10 @@
         <v>35299</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>42.1917</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1489324</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>42.1917</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -12323,10 +12323,10 @@
         <v>40202</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>35.8119</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1439712</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>35.8119</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -12343,10 +12343,10 @@
         <v>38890</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>36.054</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1402142</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>36.054</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12363,10 +12363,10 @@
         <v>39733</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>34.6851</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1378143.2</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>34.6851</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12383,10 +12383,10 @@
         <v>39323</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>33.0943</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1301367</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>33.0943</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12403,10 +12403,10 @@
         <v>33243</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>28.0649</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>932960</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>28.0649</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12423,10 +12423,10 @@
         <v>32926</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>31.6086</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1040745.7</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>31.6086</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -12443,10 +12443,10 @@
         <v>29078</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>34.5277</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1003997.3</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>34.5277</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12463,10 +12463,10 @@
         <v>26322</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>34.9091</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>918878.3</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>34.9091</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12483,10 +12483,10 @@
         <v>20958</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>34.6645</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>726498</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>34.6645</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -12503,10 +12503,10 @@
         <v>18495</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>34.8049</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>643716.3</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>34.8049</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -12523,10 +12523,10 @@
         <v>16012</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>34.1115</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>546194.1</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>34.1115</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -12543,10 +12543,10 @@
         <v>16875</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>33.2285</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>560730.8</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>33.2285</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -12563,10 +12563,10 @@
         <v>23626</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>39.0025</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>921473.7</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>39.0025</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -12583,10 +12583,10 @@
         <v>19301</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>33.4008</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>644668.3</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>33.4008</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -12603,10 +12603,10 @@
         <v>22396</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>40.0047</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>895945.3</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>40.0047</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -12623,10 +12623,10 @@
         <v>14953</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>40.0631</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>599063</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>40.0631</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -12643,10 +12643,10 @@
         <v>13409</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>41.1716</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>552069.9</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>41.1716</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -12663,10 +12663,10 @@
         <v>9277</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>29.3892</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>272643.72</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>29.3892</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -12683,10 +12683,10 @@
         <v>8228</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>29.9487</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>246417.83</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>29.9487</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -12703,10 +12703,10 @@
         <v>9100</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>27.6449</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>251568.83</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>27.6449</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -12723,10 +12723,10 @@
         <v>11953</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>20.2444</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>241981.4</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>20.2444</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -12743,10 +12743,10 @@
         <v>10390</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>19.3523</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>201070.9</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>19.3523</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -12763,10 +12763,10 @@
         <v>9162</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>16.9983</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>155738.14</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>16.9983</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -12783,10 +12783,10 @@
         <v>7992</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>14.5582</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>116349.13</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>14.5582</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -12803,10 +12803,10 @@
         <v>6308</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>13.9601</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>88060</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>13.9601</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -12823,10 +12823,10 @@
         <v>5612</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>12.2831</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>68932.73</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>12.2831</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -12843,10 +12843,10 @@
         <v>5023</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>12.4605</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>62588.9</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>12.4605</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -12863,10 +12863,10 @@
         <v>4399</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>14.4421</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>63530.7</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>14.4421</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -12883,10 +12883,10 @@
         <v>4800</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>12.9271</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>62050</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>12.9271</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -12903,10 +12903,10 @@
         <v>4900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12.6633</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>62050</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12.6633</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -12923,10 +12923,10 @@
         <v>4800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>61200</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12.75</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -12943,10 +12943,10 @@
         <v>4600</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>12.9348</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>59500</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>12.9348</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -12963,10 +12963,10 @@
         <v>4500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>12.8444</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>57800</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>12.8444</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -12983,10 +12983,10 @@
         <v>4400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.8466</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>56525</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.8466</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -13002,10 +13002,10 @@
         <v>4300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>12.8488</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>55250</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>12.8488</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -13021,10 +13021,10 @@
         <v>4200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>12.9524</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>54400</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>12.9524</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -13040,10 +13040,10 @@
         <v>4200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12.6488</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>53125</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12.6488</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -13059,10 +13059,10 @@
         <v>4100</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12.6463</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>51850</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12.6463</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -13078,10 +13078,10 @@
         <v>4000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>51000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>12.75</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -13097,10 +13097,10 @@
         <v>3900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>49725</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12.75</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">

--- a/Resultados/Mercado mundial - Papayas.xlsx
+++ b/Resultados/Mercado mundial - Papayas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="República Dominicana" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Dominican Republic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Indonesia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mexico" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +760,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'República Dominicana'!$B$12:$B$74</f>
+              <f>'Dominican Republic'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'República Dominicana'!$C$12:$C$74</f>
+              <f>'Dominican Republic'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +924,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brasil'!$B$12:$B$74</f>
+              <f>'Brazil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brasil'!$C$12:$C$74</f>
+              <f>'Brazil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>463128</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>14232583.07</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>30.7314</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>14232583.07</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>390971.05</v>
@@ -2160,10 +2160,10 @@
         <v>464694</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>13939099.55</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>29.9963</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>13939099.55</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>388992.93</v>
@@ -2182,10 +2182,10 @@
         <v>460122</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>14057694.41</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>30.5521</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>14057694.41</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>385808.15</v>
@@ -2204,10 +2204,10 @@
         <v>483268</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>14197453.35</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>29.378</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>14197453.35</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>362132.57</v>
@@ -2226,10 +2226,10 @@
         <v>468787</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>14185055.56</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>30.2591</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>14185055.56</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>361770.51</v>
@@ -2248,10 +2248,10 @@
         <v>462726</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>13790410.32</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>29.8026</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>13790410.32</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>351643.78</v>
@@ -2270,10 +2270,10 @@
         <v>449740</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>13441057.03</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>29.8863</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>13441057.03</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>365307.45</v>
@@ -2292,10 +2292,10 @@
         <v>456314</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>13457240.48</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>29.4912</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>13457240.48</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>355200.67</v>
@@ -2314,10 +2314,10 @@
         <v>419716</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>12640464.35</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>30.1167</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>12640464.35</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>335047.7</v>
@@ -2336,10 +2336,10 @@
         <v>435056</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>13167495.01</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>30.2662</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>13167495.01</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>294823.97</v>
@@ -2358,10 +2358,10 @@
         <v>428860</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>12752398.49</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>29.7356</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>12752398.49</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>272562</v>
@@ -2380,10 +2380,10 @@
         <v>425004</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>12403890.64</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>29.1853</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>12403890.64</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>268323</v>
@@ -2402,10 +2402,10 @@
         <v>412481</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>11639941.44</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>28.2194</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>11639941.44</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>260256</v>
@@ -2424,10 +2424,10 @@
         <v>405036</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>11106516.57</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>27.421</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>11106516.57</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>266409</v>
@@ -2446,10 +2446,10 @@
         <v>392474</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>10892057.2</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>27.7523</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>10892057.2</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>268458</v>
@@ -2468,10 +2468,10 @@
         <v>391786</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>10354923.77</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>26.43</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>10354923.77</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>244982</v>
@@ -2490,10 +2490,10 @@
         <v>371858</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9849659.57</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>26.4877</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9849659.57</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>254171</v>
@@ -2512,10 +2512,10 @@
         <v>357621</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9336063.939999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>26.106</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9336063.939999999</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>263444</v>
@@ -2534,10 +2534,10 @@
         <v>371098</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>8460779.66</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>22.7993</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>8460779.66</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>254176</v>
@@ -2556,10 +2556,10 @@
         <v>361599</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>8912795.880000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>24.6483</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>8912795.880000001</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>265340</v>
@@ -2578,10 +2578,10 @@
         <v>358920</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8388273.78</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>23.3709</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>8388273.78</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>234300</v>
@@ -2600,10 +2600,10 @@
         <v>360834</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8616931.85</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>23.8806</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8616931.85</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>197883</v>
@@ -2622,10 +2622,10 @@
         <v>361609</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>8736322.25</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>24.1596</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>8736322.25</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>185585.75</v>
@@ -2644,10 +2644,10 @@
         <v>353961</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7335302.17</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>20.7235</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7335302.17</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>160401.48</v>
@@ -2666,10 +2666,10 @@
         <v>346189</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6998797.95</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>20.2167</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6998797.95</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>148388.8</v>
@@ -2688,10 +2688,10 @@
         <v>350086</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6759766.07</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>19.3089</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6759766.07</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>114340</v>
@@ -2710,10 +2710,10 @@
         <v>338179</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>6494234.06</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>19.2035</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>6494234.06</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>109292</v>
@@ -2732,10 +2732,10 @@
         <v>315161</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5497971.42</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>17.445</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5497971.42</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>115192.32</v>
@@ -2754,10 +2754,10 @@
         <v>304041</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5747907.79</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>18.905</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5747907.79</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>92671.5</v>
@@ -2776,10 +2776,10 @@
         <v>305172</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5532325.87</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>18.1286</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5532325.87</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>78656</v>
@@ -2798,10 +2798,10 @@
         <v>280128</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5069161.48</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>18.0959</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5069161.48</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>71584</v>
@@ -2820,10 +2820,10 @@
         <v>255889</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4357926.45</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>17.0306</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4357926.45</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>57044</v>
@@ -2842,10 +2842,10 @@
         <v>254947</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>4035264.24</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>15.8278</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>4035264.24</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>59293</v>
@@ -2864,10 +2864,10 @@
         <v>235883</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3291518.1</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>13.954</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3291518.1</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>50994</v>
@@ -2886,10 +2886,10 @@
         <v>227419</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3145338.8</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>13.8306</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3145338.8</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>45800</v>
@@ -2908,10 +2908,10 @@
         <v>242597</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3662477.7</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>15.097</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3662477.7</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>45078</v>
@@ -2930,10 +2930,10 @@
         <v>232435</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3307700.3</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>14.2306</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3307700.3</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>31477</v>
@@ -2952,10 +2952,10 @@
         <v>242454</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3641078.3</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15.0176</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3641078.3</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>22584</v>
@@ -2974,10 +2974,10 @@
         <v>220908</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3158263</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>14.2967</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3158263</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>22143</v>
@@ -2996,10 +2996,10 @@
         <v>219727</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3198490.9</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>14.5567</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3198490.9</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>27463</v>
@@ -3018,10 +3018,10 @@
         <v>199840</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2590352.72</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>12.9621</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2590352.72</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>17023</v>
@@ -3040,10 +3040,10 @@
         <v>205447</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2520610.83</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>12.2689</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2520610.83</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>12613</v>
@@ -3062,10 +3062,10 @@
         <v>198643</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2412293.83</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>12.1439</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2412293.83</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>12274</v>
@@ -3084,10 +3084,10 @@
         <v>194684</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2460987.4</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12.6409</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2460987.4</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>11773</v>
@@ -3106,10 +3106,10 @@
         <v>178519</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2323524.9</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>13.0156</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2323524.9</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>11437</v>
@@ -3128,10 +3128,10 @@
         <v>172950</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2247074.14</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>12.9926</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2247074.14</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2498</v>
@@ -3150,10 +3150,10 @@
         <v>170044</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2287399.13</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>13.4518</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2287399.13</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>2586</v>
@@ -3172,10 +3172,10 @@
         <v>154377</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1908409</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>12.362</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1908409</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2875</v>
@@ -3194,10 +3194,10 @@
         <v>167711</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1935780.73</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11.5424</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1935780.73</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>2729</v>
@@ -3216,10 +3216,10 @@
         <v>160234</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1748222.9</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>10.9104</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1748222.9</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>2542</v>
@@ -3238,10 +3238,10 @@
         <v>154972</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1809377.7</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.6755</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1809377.7</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1661</v>
@@ -3260,10 +3260,10 @@
         <v>151239</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1753014</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11.591</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1753014</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1399</v>
@@ -3282,10 +3282,10 @@
         <v>148631</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1760669</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>11.8459</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1760669</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>2483</v>
@@ -3304,10 +3304,10 @@
         <v>144609</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1693379</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.7101</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1693379</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1676</v>
@@ -3326,10 +3326,10 @@
         <v>145045</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1711868</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.8023</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1711868</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>704</v>
@@ -3348,10 +3348,10 @@
         <v>143147</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1707073</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.9253</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1707073</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>818</v>
@@ -3370,10 +3370,10 @@
         <v>135342</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1650269</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.1933</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1650269</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>779</v>
@@ -3391,10 +3391,10 @@
         <v>134784</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1634868</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12.1295</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1634868</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>982</v>
@@ -3412,10 +3412,10 @@
         <v>129350</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1547781</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>11.9658</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1547781</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1278</v>
@@ -3433,10 +3433,10 @@
         <v>119989</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1362721</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>11.357</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1362721</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>282</v>
@@ -3454,10 +3454,10 @@
         <v>121196</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1424481</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>11.7535</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1424481</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>5</v>
@@ -3475,10 +3475,10 @@
         <v>117275</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1350458</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.5153</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1350458</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>14</v>
@@ -3496,10 +3496,10 @@
         <v>114192</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1322877</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11.5847</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1322877</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>76</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3896,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>República Dominicana</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>República Democrática del Congo</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4243,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Filipinas</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Singapur</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4717,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>148000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5240000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>35.4054</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5240000</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5031,10 @@
         <v>150000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5341000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>35.6067</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5341000</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5051,10 @@
         <v>146000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5540000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>37.9452</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5540000</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5071,10 +5071,10 @@
         <v>142000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5780000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>40.7042</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5780000</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5091,10 +5091,10 @@
         <v>149000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6050000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>40.604</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6050000</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5111,10 +5111,10 @@
         <v>138000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>5989000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>43.3986</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>5989000</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -5131,10 +5131,10 @@
         <v>134000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5940000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>44.3284</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5940000</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -5151,10 +5151,10 @@
         <v>132000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>5667000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>42.9318</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>5667000</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -5171,10 +5171,10 @@
         <v>115000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4913000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>42.7217</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4913000</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5191,10 +5191,10 @@
         <v>133360</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>5639300</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>42.2863</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>5639300</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -5211,10 +5211,10 @@
         <v>135000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5544000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>41.0667</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5544000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>132000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5382000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>40.7727</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5382000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5255,10 +5255,10 @@
         <v>117400</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4457100</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>37.9651</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4457100</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5277,10 +5277,10 @@
         <v>106000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4196000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>39.5849</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4196000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5299,10 +5299,10 @@
         <v>95700</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3913500</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>40.8934</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3913500</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5321,10 +5321,10 @@
         <v>98000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3629000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>37.0306</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3629000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5343,10 +5343,10 @@
         <v>83000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2909000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>35.04819999999999</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2909000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5365,10 +5365,10 @@
         <v>72500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2482100</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>34.2359</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2482100</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>3</v>
@@ -5387,10 +5387,10 @@
         <v>67800</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2139300</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>31.5531</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2139300</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -5407,10 +5407,10 @@
         <v>73800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2535100</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>34.3509</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2535100</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -5427,10 +5427,10 @@
         <v>58200</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1692100</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>29.0739</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1692100</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -5447,10 +5447,10 @@
         <v>68000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2147200</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>31.5765</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2147200</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -5467,10 +5467,10 @@
         <v>73700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2590400</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>35.1479</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2590400</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -5487,10 +5487,10 @@
         <v>70422</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1796960</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>25.517</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1796960</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -5507,10 +5507,10 @@
         <v>60825</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1666470</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>27.3978</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1666470</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -5527,10 +5527,10 @@
         <v>67767</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1582270</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>23.3487</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1582270</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -5547,10 +5547,10 @@
         <v>69419</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1618490</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>23.3148</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1618490</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -5567,10 +5567,10 @@
         <v>63780</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1299330</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>20.3721</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1299330</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -5587,10 +5587,10 @@
         <v>61420</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1329670</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>21.6488</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1329670</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -5607,10 +5607,10 @@
         <v>61450</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1373460</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>22.3509</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1373460</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -5627,10 +5627,10 @@
         <v>55945</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1266720</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>22.6422</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1266720</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -5647,10 +5647,10 @@
         <v>47412</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>803617</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>16.9497</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>803617</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -5667,10 +5667,10 @@
         <v>45200</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>805300</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17.8164</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>805300</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -5687,10 +5687,10 @@
         <v>36518</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>451497</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>12.3637</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>451497</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -5707,10 +5707,10 @@
         <v>35554</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>354304</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>9.965200000000001</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>354304</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -5727,10 +5727,10 @@
         <v>35474</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>386486</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>10.8949</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>386486</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -5747,10 +5747,10 @@
         <v>32993</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>276346</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>8.3759</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>276346</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -5767,10 +5767,10 @@
         <v>32959</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>278767</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8.458</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>278767</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -5787,10 +5787,10 @@
         <v>31000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>7.741899999999999</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>240000</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -5807,10 +5807,10 @@
         <v>32000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>254000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7.9375</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>254000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -5827,10 +5827,10 @@
         <v>26960</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>325544</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>12.0751</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>325544</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -5847,10 +5847,10 @@
         <v>27060</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>358457</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>13.2467</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>358457</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -5867,10 +5867,10 @@
         <v>26870</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>248129</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9.234399999999999</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>248129</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -5887,10 +5887,10 @@
         <v>25684</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>413467</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>16.0982</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>413467</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -5907,10 +5907,10 @@
         <v>25685</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>419002</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>16.3131</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>419002</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -5927,10 +5927,10 @@
         <v>25628</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>408510</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>15.94</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>408510</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -5947,10 +5947,10 @@
         <v>23258</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>450441</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>19.3671</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>450441</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -5967,10 +5967,10 @@
         <v>12180</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>232571</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>19.0945</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>232571</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -5987,10 +5987,10 @@
         <v>10864</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>224900</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>20.7014</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>224900</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -6007,10 +6007,10 @@
         <v>10326</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>226211</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>21.9069</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>226211</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -6027,10 +6027,10 @@
         <v>9822</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>218318</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>22.2274</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>218318</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -6047,10 +6047,10 @@
         <v>9953</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>188867</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>18.9759</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>188867</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -6067,10 +6067,10 @@
         <v>11012</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>246806</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>22.4125</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>246806</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -6087,10 +6087,10 @@
         <v>10384</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>204680</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>19.7111</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>204680</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -6107,10 +6107,10 @@
         <v>9000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>222000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>24.6667</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>222000</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -6127,10 +6127,10 @@
         <v>9000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>205000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>22.7778</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>205000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -6147,10 +6147,10 @@
         <v>8000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>209000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>26.125</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>209000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -6166,10 +6166,10 @@
         <v>8000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>206000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>25.75</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>206000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -6185,10 +6185,10 @@
         <v>6000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>179000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>29.8333</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>179000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -6204,10 +6204,10 @@
         <v>6000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>151000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>25.1667</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>151000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -6223,10 +6223,10 @@
         <v>7000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>236000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>33.7143</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>236000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -6242,10 +6242,10 @@
         <v>7000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>232000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>33.1429</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>232000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -6261,10 +6261,10 @@
         <v>6000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>228000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>38</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>228000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -6598,7 +6598,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6677,10 +6677,10 @@
         <v>11569</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1586784.27</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>137.1556</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1586784.27</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>18.22</v>
@@ -6699,10 +6699,10 @@
         <v>10022</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1281726.35</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>127.8865</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1281726.35</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="inlineStr"/>
@@ -6717,10 +6717,10 @@
         <v>9612</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1156667.01</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>120.3301</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1156667.01</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -6737,10 +6737,10 @@
         <v>9173</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1094494.77</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>119.3151</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1094494.77</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0</v>
@@ -6759,10 +6759,10 @@
         <v>11582</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1176452.87</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>101.5753</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1176452.87</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -6779,10 +6779,10 @@
         <v>10308</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1026618.89</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>99.59569999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1026618.89</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>5.52</v>
@@ -6801,10 +6801,10 @@
         <v>8972</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>869306</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>96.89100000000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>869306</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>5.49</v>
@@ -6823,10 +6823,10 @@
         <v>8996</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>863201.49</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>95.95389999999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>863201.49</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2.52</v>
@@ -6845,10 +6845,10 @@
         <v>2700</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>758106</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>280.8105</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>758106</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1.15</v>
@@ -6867,10 +6867,10 @@
         <v>2676</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>704786.36</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>263.3731</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>704786.36</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>8.26</v>
@@ -6889,10 +6889,10 @@
         <v>2470</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>531601.2</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>215.1883</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>531601.2</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="n">
@@ -6909,10 +6909,10 @@
         <v>2482</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>520829.2</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>209.8087</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>520829.2</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="n">
@@ -6929,10 +6929,10 @@
         <v>2432</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>497916.2</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>204.6936</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>497916.2</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="n">
@@ -6949,10 +6949,10 @@
         <v>2280</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>498071.31</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>218.4242</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>498071.31</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="n">
@@ -6969,10 +6969,10 @@
         <v>1900</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>531892.41</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>279.9434</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>531892.41</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -6989,10 +6989,10 @@
         <v>1738</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>310856.39</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>178.8233</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>310856.39</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -7009,10 +7009,10 @@
         <v>2160</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>531601.2</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>246.1427</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>531601.2</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -7029,10 +7029,10 @@
         <v>2336</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>520829.18</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>223.0041</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>520829.18</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -7049,10 +7049,10 @@
         <v>1695</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>408144.79</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>240.8396</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>408144.79</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -7069,10 +7069,10 @@
         <v>1845</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>291783.54</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>158.1348</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>291783.54</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -7089,10 +7089,10 @@
         <v>1800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>379467.48</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>210.7711</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>379467.48</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -7109,10 +7109,10 @@
         <v>2419</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>409886.6</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>169.4187</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>409886.6</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -7129,10 +7129,10 @@
         <v>1298</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>381998.55</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>294.2959</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>381998.55</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -7149,10 +7149,10 @@
         <v>1329</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>212049.35</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>159.5135</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>212049.35</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -7169,10 +7169,10 @@
         <v>1314</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>100483.53</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>76.4688</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>100483.53</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -7189,10 +7189,10 @@
         <v>1018</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>94599.47</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>92.9547</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>94599.47</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -7209,10 +7209,10 @@
         <v>1113</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>130763.86</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>117.4946</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>130763.86</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -7229,10 +7229,10 @@
         <v>1801</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>67849.03999999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>37.675</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>67849.03999999999</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7249,10 +7249,10 @@
         <v>1488</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>36.95330000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>55000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -7269,10 +7269,10 @@
         <v>1209</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>45.4861</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>55000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -7289,10 +7289,10 @@
         <v>1284</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>42.8396</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>55000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -7309,10 +7309,10 @@
         <v>1136</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>48.4192</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>55000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -7329,10 +7329,10 @@
         <v>976</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>56.3454</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>55000</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -7349,10 +7349,10 @@
         <v>2200</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>25</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>55000</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -7369,10 +7369,10 @@
         <v>1300</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -7389,10 +7389,10 @@
         <v>1700</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>17383</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>10.2253</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>17383</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -7409,10 +7409,10 @@
         <v>1400</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13910</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>9.935700000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13910</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -7429,10 +7429,10 @@
         <v>890</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8640</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9.7079</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8640</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -7449,10 +7449,10 @@
         <v>880</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8477</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>9.632999999999999</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8477</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -7469,10 +7469,10 @@
         <v>850</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>8247</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9.702399999999999</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>8247</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -7489,10 +7489,10 @@
         <v>920</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8900</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>9.6739</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8900</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -7509,10 +7509,10 @@
         <v>920</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8800</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>9.565200000000001</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8800</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -7529,10 +7529,10 @@
         <v>880</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9.6591</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8500</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -7549,10 +7549,10 @@
         <v>660</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>9.2424</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>6100</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -7569,10 +7569,10 @@
         <v>960</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8900</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>9.270799999999999</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8900</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -7589,10 +7589,10 @@
         <v>960</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8800</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>9.166700000000001</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8800</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -7609,10 +7609,10 @@
         <v>910</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8500</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>9.3407</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8500</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -7629,10 +7629,10 @@
         <v>910</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8400</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>9.230799999999999</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8400</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -7649,10 +7649,10 @@
         <v>910</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>9.010999999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8200</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -7669,10 +7669,10 @@
         <v>900</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.8889</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -7689,10 +7689,10 @@
         <v>880</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7824</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8.8909</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7824</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -7709,10 +7709,10 @@
         <v>850</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7626</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>8.9718</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7626</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -7729,10 +7729,10 @@
         <v>820</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>7275</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>8.872</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>7275</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -7749,10 +7749,10 @@
         <v>770</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>6688</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.685700000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>6688</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -7769,10 +7769,10 @@
         <v>760</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6446</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.4816</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6446</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -7789,10 +7789,10 @@
         <v>750</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6257</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.342700000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6257</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -7809,10 +7809,10 @@
         <v>730</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>6072</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.3178</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>6072</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -7828,10 +7828,10 @@
         <v>700</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5897</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.424299999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5897</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -7847,10 +7847,10 @@
         <v>700</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5720</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8.1714</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5720</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -7866,10 +7866,10 @@
         <v>650</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5559</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>8.552299999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5559</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -7885,10 +7885,10 @@
         <v>650</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5395</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.300000000000001</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5395</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -7904,10 +7904,10 @@
         <v>650</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5247</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8.0723</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5247</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -7923,10 +7923,10 @@
         <v>640</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5122</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8.0031</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5122</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -8260,7 +8260,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8339,10 +8339,10 @@
         <v>12541</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1238692.13</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>98.7718</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1238692.13</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0</v>
@@ -8361,10 +8361,10 @@
         <v>11191</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1089578.12</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>97.36150000000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1089578.12</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.01</v>
@@ -8383,10 +8383,10 @@
         <v>12176</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1168265.89</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>95.9513</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1168265.89</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -8403,10 +8403,10 @@
         <v>10628</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1016388</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>95.62939999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1016388</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8423,10 +8423,10 @@
         <v>10530</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>986991</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>93.73010000000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>986991</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -8443,10 +8443,10 @@
         <v>9659</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>887580</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>91.8912</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>887580</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -8463,10 +8463,10 @@
         <v>9736</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>875112</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>89.8832</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>875112</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -8483,10 +8483,10 @@
         <v>10289</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>904284</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>87.89089999999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>904284</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -8503,10 +8503,10 @@
         <v>9655</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>851480</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>88.19410000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>851480</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -8523,10 +8523,10 @@
         <v>9690</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>840121</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>86.69750000000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>840121</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -8543,10 +8543,10 @@
         <v>10822</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>909827</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>84.071</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>909827</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -8565,10 +8565,10 @@
         <v>11701</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>906312</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>77.4559</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>906312</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>83</v>
@@ -8587,10 +8587,10 @@
         <v>11055</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>958251</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>86.6803</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>958251</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>299</v>
@@ -8609,10 +8609,10 @@
         <v>9225</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>675801</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>73.25760000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>675801</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>580</v>
@@ -8631,10 +8631,10 @@
         <v>9571</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>772844</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>80.74850000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>772844</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>300</v>
@@ -8653,10 +8653,10 @@
         <v>9388</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>717899</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>76.4699</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>717899</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>163</v>
@@ -8675,10 +8675,10 @@
         <v>7984</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>621524</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>77.8462</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>621524</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>57</v>
@@ -8697,10 +8697,10 @@
         <v>8021</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>643451</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>80.2208</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>643451</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>73</v>
@@ -8719,10 +8719,10 @@
         <v>7879</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>548657</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>69.63539999999999</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>548657</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>157</v>
@@ -8741,10 +8741,10 @@
         <v>9134</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>732611</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>80.20699999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>732611</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1790</v>
@@ -8763,10 +8763,10 @@
         <v>9306</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>626745</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>67.3485</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>626745</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>299</v>
@@ -8785,10 +8785,10 @@
         <v>10280</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>605194</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>58.871</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>605194</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -8807,10 +8807,10 @@
         <v>10259</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>500571</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>48.7934</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>500571</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1</v>
@@ -8829,10 +8829,10 @@
         <v>8886</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>429207</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>48.3015</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>429207</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -8851,10 +8851,10 @@
         <v>9946</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>449919</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>45.2362</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>449919</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>25</v>
@@ -8873,10 +8873,10 @@
         <v>9886</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>489948</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>49.5598</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>489948</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -8895,10 +8895,10 @@
         <v>10036</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>360503</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>35.921</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>360503</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1</v>
@@ -8917,10 +8917,10 @@
         <v>9892</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>381964</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>38.6134</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>381964</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2</v>
@@ -8939,10 +8939,10 @@
         <v>11182</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>586081</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>52.4129</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>586081</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -8961,10 +8961,10 @@
         <v>12235</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>371411</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>30.3564</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>371411</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -8983,10 +8983,10 @@
         <v>10751</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>422399</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>39.2893</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>422399</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>13157</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>406590</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>30.9029</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>406590</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>40</v>
@@ -9027,10 +9027,10 @@
         <v>24597</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>352651</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>14.3372</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>352651</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9049,10 +9049,10 @@
         <v>27880</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>349561</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>12.5381</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>349561</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9071,10 +9071,10 @@
         <v>26307</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>323035</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>12.2794</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>323035</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9093,10 +9093,10 @@
         <v>35183</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>345957</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>9.8331</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>345957</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9115,10 +9115,10 @@
         <v>33000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>321000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>9.7273</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>321000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9137,10 +9137,10 @@
         <v>36000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>314816</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8.744899999999999</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>314816</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9159,10 +9159,10 @@
         <v>28050</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>255423</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>9.106</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>255423</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1</v>
@@ -9181,10 +9181,10 @@
         <v>28981</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>269024</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9.2828</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>269024</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9203,10 +9203,10 @@
         <v>28321</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>240502</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8.492000000000001</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>240502</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9225,10 +9225,10 @@
         <v>36751</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>294763</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8.0205</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>294763</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9247,10 +9247,10 @@
         <v>32574</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>322952</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9.914399999999999</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>322952</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1</v>
@@ -9269,10 +9269,10 @@
         <v>30438</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>315229</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10.3564</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>315229</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9291,10 +9291,10 @@
         <v>22820</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>263572</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>11.55</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>263572</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9313,10 +9313,10 @@
         <v>20745</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>10.605</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>220000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9335,10 +9335,10 @@
         <v>19977</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>244470</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12.2376</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>244470</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9357,10 +9357,10 @@
         <v>19200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>223120</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.6208</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>223120</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9379,10 +9379,10 @@
         <v>33600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>255700</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>7.6101</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>255700</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>34700</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>181200</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5.2219</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>181200</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9423,10 +9423,10 @@
         <v>32000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8.75</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>280000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9445,10 +9445,10 @@
         <v>30000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9467,10 +9467,10 @@
         <v>30000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9489,10 +9489,10 @@
         <v>28000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10.7143</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9511,10 +9511,10 @@
         <v>35000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>10.2857</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>360000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9533,10 +9533,10 @@
         <v>35000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>350000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9555,10 +9555,10 @@
         <v>28000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>10.7143</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>28000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10.7143</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9597,10 +9597,10 @@
         <v>26000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10.7692</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>280000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9618,10 +9618,10 @@
         <v>22000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10.9091</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>240000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9639,10 +9639,10 @@
         <v>22000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10.9091</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>240000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9660,10 +9660,10 @@
         <v>18000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.1111</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>200000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9681,10 +9681,10 @@
         <v>18000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11.1111</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>200000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10020,7 +10020,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10099,10 +10099,10 @@
         <v>20334</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1148545.61</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>56.4828</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1148545.61</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -10119,10 +10119,10 @@
         <v>20336</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1196300.74</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>58.8261</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1196300.74</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -10139,10 +10139,10 @@
         <v>19509</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1134753.09</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>58.1659</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1134753.09</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -10159,10 +10159,10 @@
         <v>18983</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1117437.2</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>58.8658</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1117437.2</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -10179,10 +10179,10 @@
         <v>18839</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1083132.67</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>57.493</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1083132.67</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -10199,10 +10199,10 @@
         <v>17923</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1039819.62</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>58.0147</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1039819.62</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -10219,10 +10219,10 @@
         <v>16664</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>961768.25</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>57.7166</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>961768.25</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10239,10 +10239,10 @@
         <v>16820</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>951921.9</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>56.5954</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>951921.9</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10259,10 +10259,10 @@
         <v>15869</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>883592.54</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>55.6787</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>883592.54</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -10279,10 +10279,10 @@
         <v>14533</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>836370.48</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>57.5483</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>836370.48</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -10299,10 +10299,10 @@
         <v>14869</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>764514</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>51.4166</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>764514</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>9</v>
@@ -10321,10 +10321,10 @@
         <v>14227</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>712917</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>50.1101</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>712917</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>71</v>
@@ -10343,10 +10343,10 @@
         <v>14223</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>634369</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>44.6016</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>634369</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>152</v>
@@ -10365,10 +10365,10 @@
         <v>14180</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>616215</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>43.4566</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>616215</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>264</v>
@@ -10387,10 +10387,10 @@
         <v>15574</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>707347</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>45.4185</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>707347</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -10409,10 +10409,10 @@
         <v>16157</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>652934</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>40.4118</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>652934</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>20946</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>919425</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>43.895</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>919425</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -10453,10 +10453,10 @@
         <v>19391</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>798589</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>41.1835</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>798589</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>17</v>
@@ -10475,10 +10475,10 @@
         <v>18921</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>709477</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>37.4968</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>709477</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -10497,10 +10497,10 @@
         <v>20610</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>787663</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>38.2175</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>787663</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10519,10 +10519,10 @@
         <v>26327</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>955694</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>36.3009</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>955694</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -10541,10 +10541,10 @@
         <v>20445</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>876150</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>42.854</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>876150</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -10563,10 +10563,10 @@
         <v>22244</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>873457</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>39.2671</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>873457</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>17153</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>672376</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>39.1987</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>672376</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10607,10 +10607,10 @@
         <v>17581</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>569230</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>32.3776</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>569230</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -10629,10 +10629,10 @@
         <v>19694</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>575558</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>29.225</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>575558</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -10651,10 +10651,10 @@
         <v>19703</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>594134</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>30.1545</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>594134</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>17322</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>496849</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>28.6831</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>496849</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -10695,10 +10695,10 @@
         <v>13987</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>482968</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>34.5298</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>482968</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -10717,10 +10717,10 @@
         <v>18460</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>489014</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>26.4905</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>489014</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -10739,10 +10739,10 @@
         <v>13410</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>273219</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>20.3743</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>273219</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>17278</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>474193</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>27.4449</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>474193</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1</v>
@@ -10783,10 +10783,10 @@
         <v>13919</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>342035</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>24.5732</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>342035</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -10805,10 +10805,10 @@
         <v>9832</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>249545</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>25.3809</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>249545</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1</v>
@@ -10827,10 +10827,10 @@
         <v>12280</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>284089</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>23.1343</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>284089</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>2</v>
@@ -10849,10 +10849,10 @@
         <v>18711</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>436377</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>23.3219</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>436377</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>8</v>
@@ -10871,10 +10871,10 @@
         <v>18780</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>548382</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>29.2003</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>548382</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -10893,10 +10893,10 @@
         <v>22585</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>713619</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>31.597</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>713619</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -10915,10 +10915,10 @@
         <v>20617</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>659524</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>31.9893</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>659524</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -10937,10 +10937,10 @@
         <v>22434</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>764511</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>34.0782</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>764511</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -10959,10 +10959,10 @@
         <v>15496</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>425145</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>27.4358</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>425145</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -10981,10 +10981,10 @@
         <v>14655</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>332921</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>22.7172</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>332921</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11003,10 +11003,10 @@
         <v>11248</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>247646</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>22.0169</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>247646</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11025,10 +11025,10 @@
         <v>8521</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>194677</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>22.8467</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>194677</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11047,10 +11047,10 @@
         <v>9382</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>209307</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>22.3094</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>209307</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>11396</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>284940</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>25.0035</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>284940</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11091,10 +11091,10 @@
         <v>10898</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>282161</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>25.8911</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>282161</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11113,10 +11113,10 @@
         <v>9567</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>223725</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>23.3851</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>223725</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>10695</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>261547</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>24.4551</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>261547</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>10345</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>176012</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>17.0142</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>176012</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11179,10 +11179,10 @@
         <v>9222</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>184024</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>19.9549</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>184024</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11201,10 +11201,10 @@
         <v>8635</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>168907</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>19.5607</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>168907</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>6079</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>144539</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>23.7768</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>144539</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11245,10 +11245,10 @@
         <v>5624</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>125097</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>22.2434</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>125097</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11267,10 +11267,10 @@
         <v>5129</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>119788</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>23.355</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>119788</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11289,10 +11289,10 @@
         <v>4925</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>128424</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>26.0759</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>128424</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>5330</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>117656</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>22.0743</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>117656</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11332,10 +11332,10 @@
         <v>5375</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>122212</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>22.7371</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>122212</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11353,10 +11353,10 @@
         <v>5058</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>118975</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>23.5221</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>118975</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11374,10 +11374,10 @@
         <v>3216</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>70342</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>21.8725</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>70342</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11395,10 +11395,10 @@
         <v>3058</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>67649</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>22.122</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>67649</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11416,10 +11416,10 @@
         <v>2245</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>48161</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>21.4526</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>48161</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11437,10 +11437,10 @@
         <v>1674</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>35757</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>21.3602</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>35757</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11776,7 +11776,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11855,10 +11855,10 @@
         <v>26839</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1138343</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>42.4138</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1138343</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -11875,10 +11875,10 @@
         <v>27210</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1188504</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>43.6789</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1188504</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -11895,10 +11895,10 @@
         <v>28593</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1259684</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>44.05569999999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1259684</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -11915,10 +11915,10 @@
         <v>28451</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1234639</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>43.39530000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1234639</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11935,10 +11935,10 @@
         <v>28058</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1171026</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>41.7359</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1171026</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -11955,10 +11955,10 @@
         <v>27402</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1065421</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>38.8811</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1065421</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -11975,10 +11975,10 @@
         <v>26675</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1058487</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>39.6809</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1058487</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -11995,10 +11995,10 @@
         <v>35157</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1296940</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>36.89</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1296940</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -12015,10 +12015,10 @@
         <v>30545</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1481190</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>48.4921</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1481190</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -12035,10 +12035,10 @@
         <v>32031</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1603351</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>50.0562</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1603351</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -12055,10 +12055,10 @@
         <v>31989</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1582638</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>49.4744</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1582638</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12077,10 +12077,10 @@
         <v>31310</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1517696</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>48.4732</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1517696</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -12099,10 +12099,10 @@
         <v>35531</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1854343</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>52.1894</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1854343</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -12121,10 +12121,10 @@
         <v>34417</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1871961</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>54.3906</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1871961</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2</v>
@@ -12143,10 +12143,10 @@
         <v>34213</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1792594</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>52.3951</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1792594</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="n">
@@ -12163,10 +12163,10 @@
         <v>36585</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1890286</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>51.6683</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1890286</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="n">
@@ -12183,10 +12183,10 @@
         <v>34779</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1811535</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>52.087</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1811535</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="n">
@@ -12203,10 +12203,10 @@
         <v>36650</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1897639</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>51.7773</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1897639</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="n">
@@ -12223,10 +12223,10 @@
         <v>32559</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1573819</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>48.3374</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1573819</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="n">
@@ -12243,10 +12243,10 @@
         <v>34445</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1612348</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>46.8093</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1612348</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="n">
@@ -12263,10 +12263,10 @@
         <v>36244</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1714594</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>47.307</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1714594</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="n">
@@ -12283,10 +12283,10 @@
         <v>35626</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1597796</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>44.8492</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1597796</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="n">
@@ -12303,10 +12303,10 @@
         <v>35299</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1489324</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>42.1917</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1489324</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -12323,10 +12323,10 @@
         <v>40202</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1439712</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>35.8119</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1439712</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -12343,10 +12343,10 @@
         <v>38890</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1402142</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>36.054</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1402142</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12363,10 +12363,10 @@
         <v>39733</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1378143.2</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>34.6851</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1378143.2</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12383,10 +12383,10 @@
         <v>39323</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1301367</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>33.0943</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1301367</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12403,10 +12403,10 @@
         <v>33243</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>932960</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>28.0649</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>932960</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12423,10 +12423,10 @@
         <v>32926</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1040745.7</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>31.6086</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1040745.7</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -12443,10 +12443,10 @@
         <v>29078</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1003997.3</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>34.5277</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1003997.3</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12463,10 +12463,10 @@
         <v>26322</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>918878.3</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>34.9091</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>918878.3</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12483,10 +12483,10 @@
         <v>20958</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>726498</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>34.6645</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>726498</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -12503,10 +12503,10 @@
         <v>18495</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>643716.3</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>34.8049</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>643716.3</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -12523,10 +12523,10 @@
         <v>16012</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>546194.1</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>34.1115</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>546194.1</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -12543,10 +12543,10 @@
         <v>16875</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>560730.8</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>33.2285</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>560730.8</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -12563,10 +12563,10 @@
         <v>23626</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>921473.7</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>39.0025</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>921473.7</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -12583,10 +12583,10 @@
         <v>19301</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>644668.3</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>33.4008</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>644668.3</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -12603,10 +12603,10 @@
         <v>22396</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>895945.3</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>40.0047</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>895945.3</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -12623,10 +12623,10 @@
         <v>14953</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>599063</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>40.0631</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>599063</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -12643,10 +12643,10 @@
         <v>13409</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>552069.9</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>41.1716</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>552069.9</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -12663,10 +12663,10 @@
         <v>9277</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>272643.72</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>29.3892</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>272643.72</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -12683,10 +12683,10 @@
         <v>8228</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>246417.83</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>29.9487</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>246417.83</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -12703,10 +12703,10 @@
         <v>9100</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>251568.83</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>27.6449</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>251568.83</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -12723,10 +12723,10 @@
         <v>11953</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>241981.4</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>20.2444</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>241981.4</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -12743,10 +12743,10 @@
         <v>10390</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>201070.9</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>19.3523</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>201070.9</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -12763,10 +12763,10 @@
         <v>9162</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>155738.14</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>16.9983</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>155738.14</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -12783,10 +12783,10 @@
         <v>7992</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>116349.13</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>14.5582</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>116349.13</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -12803,10 +12803,10 @@
         <v>6308</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>88060</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>13.9601</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>88060</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -12823,10 +12823,10 @@
         <v>5612</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>68932.73</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>12.2831</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>68932.73</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -12843,10 +12843,10 @@
         <v>5023</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>62588.9</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>12.4605</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>62588.9</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -12863,10 +12863,10 @@
         <v>4399</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>63530.7</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>14.4421</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>63530.7</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -12883,10 +12883,10 @@
         <v>4800</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>62050</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>12.9271</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>62050</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -12903,10 +12903,10 @@
         <v>4900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>62050</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12.6633</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>62050</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -12923,10 +12923,10 @@
         <v>4800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>61200</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12.75</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>61200</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -12943,10 +12943,10 @@
         <v>4600</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>59500</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>12.9348</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>59500</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -12963,10 +12963,10 @@
         <v>4500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>57800</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>12.8444</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>57800</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -12983,10 +12983,10 @@
         <v>4400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>56525</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.8466</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>56525</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -13002,10 +13002,10 @@
         <v>4300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>55250</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>12.8488</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>55250</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -13021,10 +13021,10 @@
         <v>4200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>54400</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>12.9524</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>54400</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -13040,10 +13040,10 @@
         <v>4200</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>53125</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12.6488</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>53125</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -13059,10 +13059,10 @@
         <v>4100</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>51850</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12.6463</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>51850</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -13078,10 +13078,10 @@
         <v>4000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>51000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>12.75</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>51000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -13097,10 +13097,10 @@
         <v>3900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>49725</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12.75</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>49725</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
